--- a/文档/测试工作相关/IT端到端测试相关/测试内容相关/2019/20191226/客保缺少字段需IBP提供需求测试设计（196004279）/客保缺少字段需ibp提供需求测试设计（196004279）测试结果.xlsx
+++ b/文档/测试工作相关/IT端到端测试相关/测试内容相关/2019/20191226/客保缺少字段需IBP提供需求测试设计（196004279）/客保缺少字段需ibp提供需求测试设计（196004279）测试结果.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
   <si>
     <t>测试状态</t>
   </si>
@@ -36,9 +36,6 @@
     </r>
   </si>
   <si>
-    <t>测试负责人</t>
-  </si>
-  <si>
     <t>需求分析</t>
   </si>
   <si>
@@ -88,9 +85,6 @@
     <t>以太专线（670产品）新装</t>
   </si>
   <si>
-    <t>张轶晟 1.5小时</t>
-  </si>
-  <si>
     <t>以太专线（670产品）WOP 2M工单接口新增字段“甲端区局”、“乙端区局”、“甲端安装地址”、“乙端安装地址”取值取自CRM上面“以太专线甲端”和“以太专线乙端”子产品属性中的安装地址和地址对应的区局。</t>
   </si>
   <si>
@@ -126,9 +120,6 @@
     <t>CRM订单号</t>
   </si>
   <si>
-    <t>发现人</t>
-  </si>
-  <si>
     <t>发现BUG时间</t>
   </si>
   <si>
@@ -148,10 +139,6 @@
   </si>
   <si>
     <t>测试不通过</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>张轶晟</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -485,7 +472,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -555,11 +542,20 @@
     <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -569,21 +565,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -857,10 +838,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IR3"/>
+  <dimension ref="A1:IQ3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -869,23 +850,22 @@
     <col min="2" max="2" width="14.625" style="14" customWidth="1"/>
     <col min="3" max="3" width="22" style="14" customWidth="1"/>
     <col min="4" max="4" width="11.25" style="14" customWidth="1"/>
-    <col min="5" max="5" width="10.25" style="14" customWidth="1"/>
-    <col min="6" max="6" width="25.625" style="14" customWidth="1"/>
-    <col min="7" max="7" width="7.125" style="14" customWidth="1"/>
-    <col min="8" max="8" width="21.125" style="14" customWidth="1"/>
-    <col min="9" max="9" width="9.875" style="15" customWidth="1"/>
-    <col min="10" max="10" width="20.75" style="14" customWidth="1"/>
-    <col min="11" max="11" width="12.875" style="14" customWidth="1"/>
-    <col min="12" max="12" width="39.875" style="14" customWidth="1"/>
-    <col min="13" max="13" width="17.75" style="14" customWidth="1"/>
-    <col min="14" max="14" width="11.25" style="14" customWidth="1"/>
-    <col min="15" max="15" width="18.75" style="14" customWidth="1"/>
-    <col min="16" max="16" width="12.25" style="14" customWidth="1"/>
-    <col min="17" max="17" width="10.125" style="14" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="14"/>
+    <col min="5" max="5" width="25.625" style="14" customWidth="1"/>
+    <col min="6" max="6" width="7.125" style="14" customWidth="1"/>
+    <col min="7" max="7" width="21.125" style="14" customWidth="1"/>
+    <col min="8" max="8" width="9.875" style="15" customWidth="1"/>
+    <col min="9" max="9" width="20.75" style="14" customWidth="1"/>
+    <col min="10" max="10" width="12.875" style="14" customWidth="1"/>
+    <col min="11" max="11" width="39.875" style="14" customWidth="1"/>
+    <col min="12" max="12" width="17.75" style="14" customWidth="1"/>
+    <col min="13" max="13" width="11.25" style="14" customWidth="1"/>
+    <col min="14" max="14" width="18.75" style="14" customWidth="1"/>
+    <col min="15" max="15" width="12.25" style="14" customWidth="1"/>
+    <col min="16" max="16" width="10.125" style="14" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:252" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:251" x14ac:dyDescent="0.15">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -901,10 +881,10 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="7" t="s">
@@ -922,24 +902,22 @@
       <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="Q1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="7" t="s">
-        <v>17</v>
-      </c>
+      <c r="R1" s="19"/>
       <c r="S1" s="19"/>
       <c r="T1" s="19"/>
       <c r="U1" s="19"/>
@@ -1173,57 +1151,54 @@
       <c r="IO1" s="19"/>
       <c r="IP1" s="19"/>
       <c r="IQ1" s="19"/>
-      <c r="IR1" s="19"/>
-    </row>
-    <row r="2" spans="1:252" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:251" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="17"/>
+      <c r="E2" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="23" t="s">
+      <c r="F2" s="30">
+        <v>2</v>
+      </c>
+      <c r="G2" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="H2" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="27">
-        <v>2</v>
-      </c>
-      <c r="H2" s="28" t="s">
+      <c r="I2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="J2" s="26">
+        <v>196004279</v>
+      </c>
+      <c r="K2" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="32" t="s">
+      <c r="L2" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="31">
-        <v>196004279</v>
-      </c>
-      <c r="L2" s="28" t="s">
+      <c r="M2" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" s="30"/>
-      <c r="P2" s="28">
+      <c r="N2" s="23"/>
+      <c r="O2" s="24">
         <v>20200107</v>
       </c>
-      <c r="Q2" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="R2" s="31"/>
+      <c r="P2" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="20"/>
       <c r="S2" s="20"/>
       <c r="T2" s="20"/>
       <c r="U2" s="20"/>
@@ -1457,33 +1432,32 @@
       <c r="IO2" s="20"/>
       <c r="IP2" s="20"/>
       <c r="IQ2" s="20"/>
-      <c r="IR2" s="20"/>
-    </row>
-    <row r="3" spans="1:252" ht="53.1" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:251" ht="53.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="17" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D3" s="6"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="31"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="20"/>
       <c r="S3" s="20"/>
       <c r="T3" s="20"/>
       <c r="U3" s="20"/>
@@ -1717,24 +1691,22 @@
       <c r="IO3" s="20"/>
       <c r="IP3" s="20"/>
       <c r="IQ3" s="20"/>
-      <c r="IR3" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="13">
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="N2:N3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1743,10 +1715,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1754,53 +1726,49 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="9.75" style="1"/>
     <col min="3" max="3" width="19.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="18.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="19.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="3"/>
-    <col min="8" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="10.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5" style="2" customWidth="1"/>
-    <col min="11" max="11" width="11" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="18.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="3"/>
+    <col min="7" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="10.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="H1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="J1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="99" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:10" ht="99" x14ac:dyDescent="0.15">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1808,30 +1776,27 @@
         <v>196004279</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="22">
+        <v>40</v>
+      </c>
+      <c r="D2" s="22">
         <v>43826.423611111109</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>46</v>
+      <c r="E2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>41</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="99" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="99" x14ac:dyDescent="0.15">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -1839,496 +1804,454 @@
         <v>196004279</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="22">
+        <v>43826.589583333334</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="22">
-        <v>43826.589583333334</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>47</v>
+      <c r="F3" s="21" t="s">
+        <v>41</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="8"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10"/>
+      <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="12"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I4" s="9"/>
+      <c r="J4" s="12"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="11"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="12"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="12"/>
+      <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I5" s="5"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="11"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="10"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="10"/>
+      <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I6" s="5"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="8"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10"/>
+      <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="12"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I7" s="9"/>
+      <c r="J7" s="12"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="8"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10"/>
+      <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="12"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I8" s="9"/>
+      <c r="J8" s="12"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="8"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="10"/>
+      <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="12"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I9" s="9"/>
+      <c r="J9" s="12"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="8"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="10"/>
+      <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="12"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I10" s="9"/>
+      <c r="J10" s="12"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="8"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="10"/>
+      <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="12"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I11" s="9"/>
+      <c r="J11" s="12"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="8"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10"/>
+      <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="12"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I12" s="9"/>
+      <c r="J12" s="12"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="8"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10"/>
+      <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="12"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I13" s="9"/>
+      <c r="J13" s="12"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="8"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="10"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
+      <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="12"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I14" s="9"/>
+      <c r="J14" s="12"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="8"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="10"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10"/>
+      <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="12"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I15" s="9"/>
+      <c r="J15" s="12"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="8"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="10"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10"/>
+      <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="12"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I16" s="9"/>
+      <c r="J16" s="12"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="8"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="10"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
+      <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="12"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I17" s="9"/>
+      <c r="J17" s="12"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="8"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="10"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
+      <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="12"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I18" s="9"/>
+      <c r="J18" s="12"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="8"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="10"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10"/>
+      <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="12"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I19" s="9"/>
+      <c r="J19" s="12"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="8"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="10"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="10"/>
+      <c r="G20" s="3"/>
       <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="12"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I20" s="9"/>
+      <c r="J20" s="12"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="8"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="10"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="10"/>
+      <c r="G21" s="3"/>
       <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="12"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I21" s="9"/>
+      <c r="J21" s="12"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="8"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="10"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="12"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I22" s="9"/>
+      <c r="J22" s="12"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="8"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="10"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="10"/>
+      <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="12"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I23" s="9"/>
+      <c r="J23" s="12"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="8"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="10"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="10"/>
+      <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="12"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I24" s="9"/>
+      <c r="J24" s="12"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="8"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="10"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="10"/>
+      <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="12"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I25" s="9"/>
+      <c r="J25" s="12"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="8"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="10"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="10"/>
+      <c r="G26" s="3"/>
       <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="12"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I26" s="9"/>
+      <c r="J26" s="12"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="8"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="10"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="10"/>
+      <c r="G27" s="3"/>
       <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="12"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I27" s="9"/>
+      <c r="J27" s="12"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="8"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="10"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="10"/>
+      <c r="G28" s="3"/>
       <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="12"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I28" s="9"/>
+      <c r="J28" s="12"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="8"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="10"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="10"/>
+      <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="12"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I29" s="9"/>
+      <c r="J29" s="12"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="8"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="10"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="10"/>
+      <c r="G30" s="3"/>
       <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="12"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I30" s="9"/>
+      <c r="J30" s="12"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="8"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="10"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="10"/>
+      <c r="G31" s="3"/>
       <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="12"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I31" s="9"/>
+      <c r="J31" s="12"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="8"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="10"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="10"/>
+      <c r="G32" s="3"/>
       <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="12"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I32" s="9"/>
+      <c r="J32" s="12"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="8"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="10"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="10"/>
+      <c r="G33" s="3"/>
       <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="12"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I33" s="9"/>
+      <c r="J33" s="12"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="8"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="10"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="10"/>
+      <c r="G34" s="3"/>
       <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="12"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I34" s="9"/>
+      <c r="J34" s="12"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="8"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="10"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="10"/>
+      <c r="G35" s="3"/>
       <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="12"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I35" s="9"/>
+      <c r="J35" s="12"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="8"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="10"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="10"/>
+      <c r="G36" s="3"/>
       <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="12"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I36" s="9"/>
+      <c r="J36" s="12"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="8"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="10"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="10"/>
+      <c r="G37" s="3"/>
       <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="12"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I37" s="9"/>
+      <c r="J37" s="12"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="8"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="10"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="10"/>
+      <c r="G38" s="3"/>
       <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="12"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I38" s="9"/>
+      <c r="J38" s="12"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" s="8"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="10"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="10"/>
+      <c r="G39" s="3"/>
       <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="12"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I39" s="9"/>
+      <c r="J39" s="12"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" s="8"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="10"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="10"/>
+      <c r="G40" s="3"/>
       <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="12"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I40" s="9"/>
+      <c r="J40" s="12"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41" s="8"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="10"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="10"/>
+      <c r="G41" s="3"/>
       <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="12"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I41" s="9"/>
+      <c r="J41" s="12"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42" s="8"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="10"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="10"/>
+      <c r="G42" s="3"/>
       <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="12"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
